--- a/src/com/SpiceTG/TestDataFiles/testdata.xlsx
+++ b/src/com/SpiceTG/TestDataFiles/testdata.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Test Case Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -33,27 +30,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Invalid Username and Invalid Password Login Test</t>
-  </si>
-  <si>
     <t>Empty Username and Empty Password Login Test</t>
   </si>
   <si>
-    <t>E-posta adresiniz veya şifreniz hatalı</t>
-  </si>
-  <si>
-    <t>Password Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username Error </t>
-  </si>
-  <si>
-    <t>Bu alanın doldurulması zorunludur.</t>
-  </si>
-  <si>
-    <t>Lütfen e-posta adresinizi girin.</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -61,6 +40,36 @@
   </si>
   <si>
     <t>leo_12345</t>
+  </si>
+  <si>
+    <t>Valid Username and Valid Password Login Test</t>
+  </si>
+  <si>
+    <t>Valid Username and Empty Password Login Test</t>
+  </si>
+  <si>
+    <t>Valid Username and Invalid Password Login Test</t>
+  </si>
+  <si>
+    <t>Invalid Username and Valid Password Login Test</t>
+  </si>
+  <si>
+    <t>Invalid Username and Empty Login Test</t>
+  </si>
+  <si>
+    <t>Login Success</t>
+  </si>
+  <si>
+    <t>Login Fail</t>
+  </si>
+  <si>
+    <t>Expected_Results</t>
+  </si>
+  <si>
+    <t>Actual_Results</t>
+  </si>
+  <si>
+    <t>Test_Case_Name</t>
   </si>
 </sst>
 </file>
@@ -474,7 +483,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -489,91 +498,125 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
@@ -692,8 +735,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>